--- a/Data/y.xlsx
+++ b/Data/y.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pyproj\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D8BF2-5DA5-4251-B9F0-714CCAA2CB75}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20254890-F42E-45F1-A8B9-B1562BAF9565}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A700" workbookViewId="0">
-      <selection activeCell="E440" sqref="E440"/>
+    <sheetView tabSelected="1" topLeftCell="A2395" workbookViewId="0">
+      <selection activeCell="A2478" sqref="A2478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1079" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
@@ -12284,7 +12284,7 @@
     </row>
     <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2281" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2282" spans="1:1" x14ac:dyDescent="0.25">
@@ -13264,7 +13264,7 @@
     </row>
     <row r="2477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2477" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2478" spans="1:1" x14ac:dyDescent="0.25">
